--- a/fuzzy_stability_analysis/results/fuz_stability_link/S/fuzziness_intervals.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/S/fuzziness_intervals.xlsx
@@ -27,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
   </si>
   <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>n_obs</t>
@@ -485,28 +485,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E2">
-        <v>0.997</v>
+        <v>0.98</v>
       </c>
       <c r="F2">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="G2">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="H2">
-        <v>0.987</v>
+        <v>0.958</v>
       </c>
       <c r="I2">
-        <v>0.975</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J2">
         <v>255</v>
@@ -517,28 +517,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="D3">
-        <v>0.996</v>
+        <v>0.974</v>
       </c>
       <c r="E3">
-        <v>0.987</v>
+        <v>0.954</v>
       </c>
       <c r="F3">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="G3">
-        <v>0.985</v>
+        <v>0.957</v>
       </c>
       <c r="H3">
-        <v>0.975</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I3">
-        <v>0.957</v>
+        <v>0.903</v>
       </c>
       <c r="J3">
         <v>85</v>
@@ -549,28 +549,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="C4">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="D4">
-        <v>0.988</v>
+        <v>0.952</v>
       </c>
       <c r="E4">
-        <v>0.974</v>
+        <v>0.928</v>
       </c>
       <c r="F4">
-        <v>0.988</v>
+        <v>0.959</v>
       </c>
       <c r="G4">
-        <v>0.977</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H4">
-        <v>0.959</v>
+        <v>0.906</v>
       </c>
       <c r="I4">
-        <v>0.9360000000000001</v>
+        <v>0.869</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.994</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C5">
-        <v>0.968</v>
+        <v>0.911</v>
       </c>
       <c r="D5">
-        <v>0.9389999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="E5">
-        <v>0.911</v>
+        <v>0.856</v>
       </c>
       <c r="F5">
-        <v>0.981</v>
+        <v>0.917</v>
       </c>
       <c r="G5">
-        <v>0.951</v>
+        <v>0.883</v>
       </c>
       <c r="H5">
-        <v>0.917</v>
+        <v>0.852</v>
       </c>
       <c r="I5">
-        <v>0.883</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J5">
         <v>25</v>
@@ -613,28 +613,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.994</v>
+        <v>0.955</v>
       </c>
       <c r="C6">
-        <v>0.977</v>
+        <v>0.928</v>
       </c>
       <c r="D6">
-        <v>0.955</v>
+        <v>0.901</v>
       </c>
       <c r="E6">
-        <v>0.928</v>
+        <v>0.879</v>
       </c>
       <c r="F6">
-        <v>0.978</v>
+        <v>0.919</v>
       </c>
       <c r="G6">
-        <v>0.951</v>
+        <v>0.885</v>
       </c>
       <c r="H6">
-        <v>0.919</v>
+        <v>0.848</v>
       </c>
       <c r="I6">
-        <v>0.885</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J6">
         <v>14</v>
@@ -645,28 +645,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.961</v>
+        <v>0.871</v>
       </c>
       <c r="C7">
-        <v>0.916</v>
+        <v>0.838</v>
       </c>
       <c r="D7">
-        <v>0.871</v>
+        <v>0.804</v>
       </c>
       <c r="E7">
-        <v>0.838</v>
+        <v>0.776</v>
       </c>
       <c r="F7">
-        <v>0.948</v>
+        <v>0.853</v>
       </c>
       <c r="G7">
-        <v>0.9</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H7">
-        <v>0.853</v>
+        <v>0.777</v>
       </c>
       <c r="I7">
-        <v>0.8159999999999999</v>
+        <v>0.741</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -677,28 +677,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.975</v>
+        <v>0.926</v>
       </c>
       <c r="C8">
-        <v>0.951</v>
+        <v>0.898</v>
       </c>
       <c r="D8">
-        <v>0.926</v>
+        <v>0.866</v>
       </c>
       <c r="E8">
-        <v>0.898</v>
+        <v>0.836</v>
       </c>
       <c r="F8">
-        <v>0.949</v>
+        <v>0.865</v>
       </c>
       <c r="G8">
-        <v>0.907</v>
+        <v>0.832</v>
       </c>
       <c r="H8">
-        <v>0.865</v>
+        <v>0.787</v>
       </c>
       <c r="I8">
-        <v>0.832</v>
+        <v>0.75</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -709,28 +709,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.883</v>
+        <v>0.805</v>
       </c>
       <c r="C9">
-        <v>0.847</v>
+        <v>0.77</v>
       </c>
       <c r="D9">
-        <v>0.805</v>
+        <v>0.745</v>
       </c>
       <c r="E9">
-        <v>0.77</v>
+        <v>0.721</v>
       </c>
       <c r="F9">
-        <v>0.862</v>
+        <v>0.768</v>
       </c>
       <c r="G9">
-        <v>0.8149999999999999</v>
+        <v>0.732</v>
       </c>
       <c r="H9">
-        <v>0.768</v>
+        <v>0.703</v>
       </c>
       <c r="I9">
-        <v>0.732</v>
+        <v>0.676</v>
       </c>
       <c r="J9">
         <v>17</v>
@@ -741,28 +741,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.776</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C10">
-        <v>0.706</v>
+        <v>0.665</v>
       </c>
       <c r="D10">
-        <v>0.6840000000000001</v>
+        <v>0.642</v>
       </c>
       <c r="E10">
+        <v>0.636</v>
+      </c>
+      <c r="F10">
         <v>0.665</v>
       </c>
-      <c r="F10">
-        <v>0.761</v>
-      </c>
       <c r="G10">
-        <v>0.6879999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="H10">
-        <v>0.665</v>
+        <v>0.614</v>
       </c>
       <c r="I10">
-        <v>0.64</v>
+        <v>0.605</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -773,28 +773,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>0.645</v>
       </c>
       <c r="C11">
-        <v>0.72</v>
+        <v>0.595</v>
       </c>
       <c r="D11">
-        <v>0.645</v>
+        <v>0.525</v>
       </c>
       <c r="E11">
-        <v>0.595</v>
+        <v>0.505</v>
       </c>
       <c r="F11">
-        <v>0.759</v>
+        <v>0.64</v>
       </c>
       <c r="G11">
-        <v>0.718</v>
+        <v>0.587</v>
       </c>
       <c r="H11">
-        <v>0.64</v>
+        <v>0.522</v>
       </c>
       <c r="I11">
-        <v>0.587</v>
+        <v>0.505</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -850,28 +850,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9409999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="C2">
-        <v>0.914</v>
+        <v>0.848</v>
       </c>
       <c r="D2">
-        <v>0.876</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E2">
-        <v>0.848</v>
+        <v>0.792</v>
       </c>
       <c r="F2">
-        <v>0.917</v>
+        <v>0.829</v>
       </c>
       <c r="G2">
-        <v>0.875</v>
+        <v>0.797</v>
       </c>
       <c r="H2">
-        <v>0.829</v>
+        <v>0.76</v>
       </c>
       <c r="I2">
-        <v>0.797</v>
+        <v>0.731</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -882,28 +882,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.968</v>
+        <v>0.922</v>
       </c>
       <c r="C3">
-        <v>0.946</v>
+        <v>0.897</v>
       </c>
       <c r="D3">
-        <v>0.922</v>
+        <v>0.866</v>
       </c>
       <c r="E3">
-        <v>0.897</v>
+        <v>0.839</v>
       </c>
       <c r="F3">
-        <v>0.954</v>
+        <v>0.89</v>
       </c>
       <c r="G3">
-        <v>0.923</v>
+        <v>0.857</v>
       </c>
       <c r="H3">
-        <v>0.89</v>
+        <v>0.819</v>
       </c>
       <c r="I3">
-        <v>0.857</v>
+        <v>0.783</v>
       </c>
       <c r="J3">
         <v>28</v>
@@ -914,28 +914,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.971</v>
+        <v>0.956</v>
       </c>
       <c r="C4">
-        <v>0.966</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4">
-        <v>0.956</v>
+        <v>0.921</v>
       </c>
       <c r="E4">
-        <v>0.9399999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="F4">
-        <v>0.962</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G4">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="H4">
-        <v>0.9340000000000001</v>
+        <v>0.882</v>
       </c>
       <c r="I4">
-        <v>0.909</v>
+        <v>0.846</v>
       </c>
       <c r="J4">
         <v>38</v>
@@ -946,28 +946,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="C5">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="D5">
-        <v>0.989</v>
+        <v>0.963</v>
       </c>
       <c r="E5">
-        <v>0.979</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F5">
-        <v>0.989</v>
+        <v>0.971</v>
       </c>
       <c r="G5">
-        <v>0.982</v>
+        <v>0.952</v>
       </c>
       <c r="H5">
-        <v>0.971</v>
+        <v>0.928</v>
       </c>
       <c r="I5">
-        <v>0.952</v>
+        <v>0.893</v>
       </c>
       <c r="J5">
         <v>59</v>
@@ -978,28 +978,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="C6">
-        <v>0.987</v>
+        <v>0.967</v>
       </c>
       <c r="D6">
-        <v>0.977</v>
+        <v>0.95</v>
       </c>
       <c r="E6">
-        <v>0.967</v>
+        <v>0.929</v>
       </c>
       <c r="F6">
-        <v>0.985</v>
+        <v>0.958</v>
       </c>
       <c r="G6">
-        <v>0.973</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H6">
-        <v>0.958</v>
+        <v>0.915</v>
       </c>
       <c r="I6">
-        <v>0.9379999999999999</v>
+        <v>0.883</v>
       </c>
       <c r="J6">
         <v>56</v>
@@ -1010,28 +1010,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.997</v>
+        <v>0.976</v>
       </c>
       <c r="C7">
-        <v>0.987</v>
+        <v>0.965</v>
       </c>
       <c r="D7">
-        <v>0.976</v>
+        <v>0.952</v>
       </c>
       <c r="E7">
-        <v>0.965</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F7">
-        <v>0.985</v>
+        <v>0.953</v>
       </c>
       <c r="G7">
-        <v>0.97</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="H7">
-        <v>0.953</v>
+        <v>0.914</v>
       </c>
       <c r="I7">
-        <v>0.9340000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="J7">
         <v>81</v>
@@ -1042,28 +1042,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C8">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="D8">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="E8">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="G8">
-        <v>0.993</v>
+        <v>0.976</v>
       </c>
       <c r="H8">
-        <v>0.987</v>
+        <v>0.961</v>
       </c>
       <c r="I8">
-        <v>0.976</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J8">
         <v>78</v>
@@ -1077,25 +1077,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H9">
-        <v>0.989</v>
+        <v>0.961</v>
       </c>
       <c r="I9">
-        <v>0.978</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J9">
         <v>76</v>
@@ -1109,25 +1109,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H10">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I10">
-        <v>0.977</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -1191,28 +1191,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.97</v>
+        <v>0.929</v>
       </c>
       <c r="C2">
-        <v>0.954</v>
+        <v>0.906</v>
       </c>
       <c r="D2">
-        <v>0.929</v>
+        <v>0.876</v>
       </c>
       <c r="E2">
-        <v>0.906</v>
+        <v>0.85</v>
       </c>
       <c r="F2">
-        <v>0.952</v>
+        <v>0.891</v>
       </c>
       <c r="G2">
-        <v>0.924</v>
+        <v>0.86</v>
       </c>
       <c r="H2">
-        <v>0.891</v>
+        <v>0.825</v>
       </c>
       <c r="I2">
-        <v>0.86</v>
+        <v>0.791</v>
       </c>
       <c r="J2">
         <v>40</v>
@@ -1223,28 +1223,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.982</v>
+        <v>0.96</v>
       </c>
       <c r="C3">
-        <v>0.971</v>
+        <v>0.945</v>
       </c>
       <c r="D3">
-        <v>0.96</v>
+        <v>0.928</v>
       </c>
       <c r="E3">
-        <v>0.945</v>
+        <v>0.907</v>
       </c>
       <c r="F3">
-        <v>0.972</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G3">
-        <v>0.953</v>
+        <v>0.912</v>
       </c>
       <c r="H3">
-        <v>0.9340000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="I3">
-        <v>0.912</v>
+        <v>0.854</v>
       </c>
       <c r="J3">
         <v>64</v>
@@ -1255,28 +1255,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.981</v>
+        <v>0.966</v>
       </c>
       <c r="C4">
-        <v>0.977</v>
+        <v>0.951</v>
       </c>
       <c r="D4">
-        <v>0.966</v>
+        <v>0.931</v>
       </c>
       <c r="E4">
-        <v>0.951</v>
+        <v>0.908</v>
       </c>
       <c r="F4">
-        <v>0.969</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G4">
-        <v>0.956</v>
+        <v>0.913</v>
       </c>
       <c r="H4">
-        <v>0.9370000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="I4">
-        <v>0.913</v>
+        <v>0.853</v>
       </c>
       <c r="J4">
         <v>68</v>
@@ -1287,28 +1287,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.993</v>
+        <v>0.963</v>
       </c>
       <c r="C5">
-        <v>0.978</v>
+        <v>0.949</v>
       </c>
       <c r="D5">
-        <v>0.963</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E5">
-        <v>0.949</v>
+        <v>0.913</v>
       </c>
       <c r="F5">
-        <v>0.983</v>
+        <v>0.945</v>
       </c>
       <c r="G5">
-        <v>0.964</v>
+        <v>0.924</v>
       </c>
       <c r="H5">
-        <v>0.945</v>
+        <v>0.902</v>
       </c>
       <c r="I5">
-        <v>0.924</v>
+        <v>0.871</v>
       </c>
       <c r="J5">
         <v>70</v>
@@ -1319,28 +1319,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.974</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="H6">
-        <v>0.991</v>
+        <v>0.964</v>
       </c>
       <c r="I6">
-        <v>0.979</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J6">
         <v>79</v>
@@ -1354,25 +1354,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.961</v>
       </c>
       <c r="I7">
-        <v>0.977</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J7">
         <v>55</v>
@@ -1386,25 +1386,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H8">
-        <v>0.989</v>
+        <v>0.96</v>
       </c>
       <c r="I8">
-        <v>0.977</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J8">
         <v>59</v>
@@ -1418,25 +1418,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H9">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I9">
-        <v>0.977</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1450,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E10">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="H10">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="I10">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1532,28 +1532,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.979</v>
+        <v>0.955</v>
       </c>
       <c r="C2">
-        <v>0.969</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D2">
-        <v>0.955</v>
+        <v>0.922</v>
       </c>
       <c r="E2">
-        <v>0.9409999999999999</v>
+        <v>0.902</v>
       </c>
       <c r="F2">
-        <v>0.965</v>
+        <v>0.921</v>
       </c>
       <c r="G2">
-        <v>0.9429999999999999</v>
+        <v>0.899</v>
       </c>
       <c r="H2">
-        <v>0.921</v>
+        <v>0.872</v>
       </c>
       <c r="I2">
-        <v>0.899</v>
+        <v>0.842</v>
       </c>
       <c r="J2">
         <v>98</v>
@@ -1564,28 +1564,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.978</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3">
-        <v>0.96</v>
+        <v>0.919</v>
       </c>
       <c r="D3">
-        <v>0.9399999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="E3">
-        <v>0.919</v>
+        <v>0.875</v>
       </c>
       <c r="F3">
-        <v>0.964</v>
+        <v>0.912</v>
       </c>
       <c r="G3">
-        <v>0.9379999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="H3">
-        <v>0.912</v>
+        <v>0.858</v>
       </c>
       <c r="I3">
-        <v>0.884</v>
+        <v>0.826</v>
       </c>
       <c r="J3">
         <v>93</v>
@@ -1596,28 +1596,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="E4">
-        <v>0.993</v>
+        <v>0.968</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H4">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="I4">
-        <v>0.978</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J4">
         <v>86</v>
@@ -1628,28 +1628,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.977</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.959</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="H5">
-        <v>0.988</v>
+        <v>0.949</v>
       </c>
       <c r="I5">
-        <v>0.972</v>
+        <v>0.917</v>
       </c>
       <c r="J5">
         <v>60</v>
@@ -1663,25 +1663,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="F6">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="H6">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
       <c r="I6">
-        <v>0.975</v>
+        <v>0.927</v>
       </c>
       <c r="J6">
         <v>36</v>
@@ -1695,25 +1695,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.976</v>
       </c>
       <c r="H7">
-        <v>0.988</v>
+        <v>0.958</v>
       </c>
       <c r="I7">
-        <v>0.976</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J7">
         <v>58</v>
@@ -1727,25 +1727,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H8">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I8">
-        <v>0.977</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J8">
         <v>27</v>
@@ -1759,25 +1759,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E9">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="H9">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="I9">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1852,25 +1852,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F2">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G2">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H2">
-        <v>0.989</v>
+        <v>0.963</v>
       </c>
       <c r="I2">
-        <v>0.978</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J2">
         <v>26</v>
@@ -1884,25 +1884,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="F3">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="I3">
-        <v>0.979</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J3">
         <v>91</v>
@@ -1913,28 +1913,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D4">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E4">
-        <v>0.995</v>
+        <v>0.974</v>
       </c>
       <c r="F4">
-        <v>0.993</v>
+        <v>0.982</v>
       </c>
       <c r="G4">
-        <v>0.989</v>
+        <v>0.969</v>
       </c>
       <c r="H4">
-        <v>0.982</v>
+        <v>0.953</v>
       </c>
       <c r="I4">
-        <v>0.969</v>
+        <v>0.926</v>
       </c>
       <c r="J4">
         <v>90</v>
@@ -1945,28 +1945,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="D5">
-        <v>0.994</v>
+        <v>0.972</v>
       </c>
       <c r="E5">
-        <v>0.986</v>
+        <v>0.957</v>
       </c>
       <c r="F5">
-        <v>0.991</v>
+        <v>0.973</v>
       </c>
       <c r="G5">
-        <v>0.984</v>
+        <v>0.956</v>
       </c>
       <c r="H5">
-        <v>0.973</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="I5">
-        <v>0.956</v>
+        <v>0.906</v>
       </c>
       <c r="J5">
         <v>64</v>
@@ -1977,28 +1977,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.998</v>
+        <v>0.977</v>
       </c>
       <c r="C6">
-        <v>0.988</v>
+        <v>0.964</v>
       </c>
       <c r="D6">
-        <v>0.977</v>
+        <v>0.948</v>
       </c>
       <c r="E6">
-        <v>0.964</v>
+        <v>0.927</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="G6">
-        <v>0.974</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H6">
-        <v>0.957</v>
+        <v>0.913</v>
       </c>
       <c r="I6">
-        <v>0.9360000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="J6">
         <v>66</v>
@@ -2009,28 +2009,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="C7">
-        <v>0.985</v>
+        <v>0.964</v>
       </c>
       <c r="D7">
-        <v>0.975</v>
+        <v>0.947</v>
       </c>
       <c r="E7">
-        <v>0.964</v>
+        <v>0.928</v>
       </c>
       <c r="F7">
-        <v>0.986</v>
+        <v>0.958</v>
       </c>
       <c r="G7">
-        <v>0.973</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H7">
-        <v>0.958</v>
+        <v>0.915</v>
       </c>
       <c r="I7">
-        <v>0.9399999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="J7">
         <v>32</v>
@@ -2041,28 +2041,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.989</v>
+        <v>0.963</v>
       </c>
       <c r="C8">
-        <v>0.978</v>
+        <v>0.944</v>
       </c>
       <c r="D8">
-        <v>0.963</v>
+        <v>0.923</v>
       </c>
       <c r="E8">
+        <v>0.897</v>
+      </c>
+      <c r="F8">
         <v>0.944</v>
       </c>
-      <c r="F8">
-        <v>0.98</v>
-      </c>
       <c r="G8">
-        <v>0.964</v>
+        <v>0.917</v>
       </c>
       <c r="H8">
-        <v>0.944</v>
+        <v>0.887</v>
       </c>
       <c r="I8">
-        <v>0.917</v>
+        <v>0.85</v>
       </c>
       <c r="J8">
         <v>33</v>
@@ -2073,28 +2073,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.9330000000000001</v>
+        <v>0.899</v>
       </c>
       <c r="C9">
-        <v>0.916</v>
+        <v>0.874</v>
       </c>
       <c r="D9">
-        <v>0.899</v>
+        <v>0.85</v>
       </c>
       <c r="E9">
-        <v>0.874</v>
+        <v>0.823</v>
       </c>
       <c r="F9">
-        <v>0.929</v>
+        <v>0.891</v>
       </c>
       <c r="G9">
-        <v>0.911</v>
+        <v>0.861</v>
       </c>
       <c r="H9">
-        <v>0.891</v>
+        <v>0.83</v>
       </c>
       <c r="I9">
-        <v>0.861</v>
+        <v>0.794</v>
       </c>
       <c r="J9">
         <v>20</v>
@@ -2105,28 +2105,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.965</v>
+        <v>0.916</v>
       </c>
       <c r="C10">
-        <v>0.944</v>
+        <v>0.891</v>
       </c>
       <c r="D10">
-        <v>0.916</v>
+        <v>0.861</v>
       </c>
       <c r="E10">
-        <v>0.891</v>
+        <v>0.832</v>
       </c>
       <c r="F10">
-        <v>0.945</v>
+        <v>0.87</v>
       </c>
       <c r="G10">
-        <v>0.909</v>
+        <v>0.838</v>
       </c>
       <c r="H10">
-        <v>0.87</v>
+        <v>0.798</v>
       </c>
       <c r="I10">
-        <v>0.838</v>
+        <v>0.762</v>
       </c>
       <c r="J10">
         <v>24</v>
@@ -2137,28 +2137,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.907</v>
+        <v>0.82</v>
       </c>
       <c r="C11">
-        <v>0.864</v>
+        <v>0.785</v>
       </c>
       <c r="D11">
-        <v>0.82</v>
+        <v>0.749</v>
       </c>
       <c r="E11">
-        <v>0.785</v>
+        <v>0.73</v>
       </c>
       <c r="F11">
-        <v>0.879</v>
+        <v>0.77</v>
       </c>
       <c r="G11">
-        <v>0.822</v>
+        <v>0.73</v>
       </c>
       <c r="H11">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I11">
-        <v>0.73</v>
+        <v>0.667</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -2225,25 +2225,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E3">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F3">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.976</v>
       </c>
       <c r="H3">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="I3">
-        <v>0.976</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -2257,25 +2257,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F4">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H4">
-        <v>0.989</v>
+        <v>0.962</v>
       </c>
       <c r="I4">
-        <v>0.978</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J4">
         <v>40</v>
@@ -2289,25 +2289,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F5">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.964</v>
       </c>
       <c r="I5">
-        <v>0.979</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J5">
         <v>68</v>
@@ -2318,28 +2318,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="C6">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="D6">
-        <v>0.993</v>
+        <v>0.976</v>
       </c>
       <c r="E6">
-        <v>0.985</v>
+        <v>0.963</v>
       </c>
       <c r="F6">
-        <v>0.99</v>
+        <v>0.972</v>
       </c>
       <c r="G6">
-        <v>0.982</v>
+        <v>0.956</v>
       </c>
       <c r="H6">
-        <v>0.972</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I6">
-        <v>0.956</v>
+        <v>0.913</v>
       </c>
       <c r="J6">
         <v>79</v>
@@ -2350,28 +2350,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="C7">
-        <v>0.986</v>
+        <v>0.967</v>
       </c>
       <c r="D7">
-        <v>0.976</v>
+        <v>0.955</v>
       </c>
       <c r="E7">
-        <v>0.967</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.958</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H7">
-        <v>0.958</v>
+        <v>0.921</v>
       </c>
       <c r="I7">
-        <v>0.9409999999999999</v>
+        <v>0.893</v>
       </c>
       <c r="J7">
         <v>71</v>
@@ -2382,28 +2382,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
       <c r="C8">
-        <v>0.989</v>
+        <v>0.971</v>
       </c>
       <c r="D8">
-        <v>0.981</v>
+        <v>0.957</v>
       </c>
       <c r="E8">
-        <v>0.971</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F8">
-        <v>0.987</v>
+        <v>0.966</v>
       </c>
       <c r="G8">
-        <v>0.978</v>
+        <v>0.947</v>
       </c>
       <c r="H8">
-        <v>0.966</v>
+        <v>0.925</v>
       </c>
       <c r="I8">
-        <v>0.947</v>
+        <v>0.892</v>
       </c>
       <c r="J8">
         <v>62</v>
@@ -2414,28 +2414,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="C9">
-        <v>0.993</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.989</v>
+        <v>0.966</v>
       </c>
       <c r="E9">
-        <v>0.98</v>
+        <v>0.947</v>
       </c>
       <c r="F9">
-        <v>0.989</v>
+        <v>0.972</v>
       </c>
       <c r="G9">
-        <v>0.982</v>
+        <v>0.955</v>
       </c>
       <c r="H9">
-        <v>0.972</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I9">
-        <v>0.955</v>
+        <v>0.901</v>
       </c>
       <c r="J9">
         <v>54</v>
@@ -2446,28 +2446,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.961</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C10">
-        <v>0.951</v>
+        <v>0.915</v>
       </c>
       <c r="D10">
-        <v>0.9350000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E10">
-        <v>0.915</v>
+        <v>0.863</v>
       </c>
       <c r="F10">
-        <v>0.955</v>
+        <v>0.918</v>
       </c>
       <c r="G10">
-        <v>0.9399999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="H10">
-        <v>0.918</v>
+        <v>0.859</v>
       </c>
       <c r="I10">
-        <v>0.891</v>
+        <v>0.822</v>
       </c>
       <c r="J10">
         <v>49</v>
@@ -2478,28 +2478,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.962</v>
+        <v>0.905</v>
       </c>
       <c r="C11">
-        <v>0.9360000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="D11">
-        <v>0.905</v>
+        <v>0.843</v>
       </c>
       <c r="E11">
-        <v>0.875</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F11">
-        <v>0.9350000000000001</v>
+        <v>0.851</v>
       </c>
       <c r="G11">
-        <v>0.894</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H11">
-        <v>0.851</v>
+        <v>0.775</v>
       </c>
       <c r="I11">
-        <v>0.8149999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="J11">
         <v>33</v>
@@ -2574,25 +2574,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="F4">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="H4">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="I4">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2603,28 +2603,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F5">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H5">
-        <v>0.988</v>
+        <v>0.961</v>
       </c>
       <c r="I5">
-        <v>0.977</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J5">
         <v>9</v>
@@ -2638,25 +2638,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E6">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F6">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.962</v>
       </c>
       <c r="I6">
-        <v>0.978</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J6">
         <v>46</v>
@@ -2670,25 +2670,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="I7">
-        <v>0.978</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J7">
         <v>64</v>
@@ -2699,28 +2699,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="C8">
-        <v>0.986</v>
+        <v>0.969</v>
       </c>
       <c r="D8">
-        <v>0.977</v>
+        <v>0.96</v>
       </c>
       <c r="E8">
-        <v>0.969</v>
+        <v>0.947</v>
       </c>
       <c r="F8">
-        <v>0.989</v>
+        <v>0.962</v>
       </c>
       <c r="G8">
-        <v>0.975</v>
+        <v>0.947</v>
       </c>
       <c r="H8">
-        <v>0.962</v>
+        <v>0.931</v>
       </c>
       <c r="I8">
-        <v>0.947</v>
+        <v>0.904</v>
       </c>
       <c r="J8">
         <v>88</v>
@@ -2731,28 +2731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="C9">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="D9">
-        <v>0.985</v>
+        <v>0.96</v>
       </c>
       <c r="E9">
-        <v>0.975</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F9">
-        <v>0.987</v>
+        <v>0.964</v>
       </c>
       <c r="G9">
-        <v>0.977</v>
+        <v>0.944</v>
       </c>
       <c r="H9">
-        <v>0.964</v>
+        <v>0.921</v>
       </c>
       <c r="I9">
-        <v>0.944</v>
+        <v>0.891</v>
       </c>
       <c r="J9">
         <v>95</v>
@@ -2763,28 +2763,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.985</v>
+        <v>0.977</v>
       </c>
       <c r="C10">
-        <v>0.982</v>
+        <v>0.968</v>
       </c>
       <c r="D10">
-        <v>0.977</v>
+        <v>0.953</v>
       </c>
       <c r="E10">
-        <v>0.968</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F10">
-        <v>0.979</v>
+        <v>0.963</v>
       </c>
       <c r="G10">
-        <v>0.973</v>
+        <v>0.946</v>
       </c>
       <c r="H10">
-        <v>0.963</v>
+        <v>0.923</v>
       </c>
       <c r="I10">
-        <v>0.946</v>
+        <v>0.89</v>
       </c>
       <c r="J10">
         <v>88</v>
@@ -2795,28 +2795,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.97</v>
+        <v>0.927</v>
       </c>
       <c r="C11">
-        <v>0.951</v>
+        <v>0.901</v>
       </c>
       <c r="D11">
-        <v>0.927</v>
+        <v>0.873</v>
       </c>
       <c r="E11">
-        <v>0.901</v>
+        <v>0.846</v>
       </c>
       <c r="F11">
-        <v>0.952</v>
+        <v>0.888</v>
       </c>
       <c r="G11">
-        <v>0.922</v>
+        <v>0.856</v>
       </c>
       <c r="H11">
-        <v>0.888</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I11">
-        <v>0.856</v>
+        <v>0.783</v>
       </c>
       <c r="J11">
         <v>68</v>
@@ -2907,25 +2907,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F6">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.976</v>
       </c>
       <c r="H6">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="I6">
-        <v>0.976</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H7">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I7">
-        <v>0.977</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J7">
         <v>29</v>
@@ -2971,25 +2971,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H8">
-        <v>0.989</v>
+        <v>0.961</v>
       </c>
       <c r="I8">
-        <v>0.977</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J8">
         <v>64</v>
@@ -3003,25 +3003,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="H9">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I9">
-        <v>0.98</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J9">
         <v>90</v>
@@ -3032,28 +3032,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.988</v>
+        <v>0.969</v>
       </c>
       <c r="C10">
-        <v>0.979</v>
+        <v>0.957</v>
       </c>
       <c r="D10">
-        <v>0.969</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E10">
-        <v>0.957</v>
+        <v>0.922</v>
       </c>
       <c r="F10">
-        <v>0.979</v>
+        <v>0.951</v>
       </c>
       <c r="G10">
-        <v>0.966</v>
+        <v>0.931</v>
       </c>
       <c r="H10">
-        <v>0.951</v>
+        <v>0.91</v>
       </c>
       <c r="I10">
-        <v>0.931</v>
+        <v>0.879</v>
       </c>
       <c r="J10">
         <v>150</v>
@@ -3064,28 +3064,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.981</v>
+        <v>0.954</v>
       </c>
       <c r="C11">
-        <v>0.969</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D11">
-        <v>0.954</v>
+        <v>0.912</v>
       </c>
       <c r="E11">
-        <v>0.9350000000000001</v>
+        <v>0.889</v>
       </c>
       <c r="F11">
-        <v>0.967</v>
+        <v>0.921</v>
       </c>
       <c r="G11">
-        <v>0.946</v>
+        <v>0.895</v>
       </c>
       <c r="H11">
-        <v>0.921</v>
+        <v>0.863</v>
       </c>
       <c r="I11">
-        <v>0.895</v>
+        <v>0.829</v>
       </c>
       <c r="J11">
         <v>123</v>
@@ -3184,25 +3184,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.976</v>
       </c>
       <c r="H7">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="I7">
-        <v>0.976</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -3216,25 +3216,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H8">
-        <v>0.988</v>
+        <v>0.96</v>
       </c>
       <c r="I8">
-        <v>0.977</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J8">
         <v>25</v>
@@ -3248,25 +3248,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="F9">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H9">
-        <v>0.989</v>
+        <v>0.96</v>
       </c>
       <c r="I9">
-        <v>0.977</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J9">
         <v>69</v>
@@ -3277,28 +3277,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D10">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E10">
-        <v>0.996</v>
+        <v>0.974</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="H10">
-        <v>0.991</v>
+        <v>0.963</v>
       </c>
       <c r="I10">
-        <v>0.979</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J10">
         <v>141</v>
@@ -3309,28 +3309,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.982</v>
+        <v>0.954</v>
       </c>
       <c r="C11">
-        <v>0.969</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D11">
-        <v>0.954</v>
+        <v>0.916</v>
       </c>
       <c r="E11">
-        <v>0.9360000000000001</v>
+        <v>0.894</v>
       </c>
       <c r="F11">
-        <v>0.968</v>
+        <v>0.925</v>
       </c>
       <c r="G11">
-        <v>0.948</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>0.925</v>
+        <v>0.873</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
+        <v>0.841</v>
       </c>
       <c r="J11">
         <v>221</v>
@@ -3386,28 +3386,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="C2">
-        <v>0.653</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="E2">
-        <v>0.62</v>
+        <v>0.592</v>
       </c>
       <c r="F2">
-        <v>0.669</v>
+        <v>0.621</v>
       </c>
       <c r="G2">
-        <v>0.642</v>
+        <v>0.608</v>
       </c>
       <c r="H2">
-        <v>0.621</v>
+        <v>0.594</v>
       </c>
       <c r="I2">
-        <v>0.608</v>
+        <v>0.573</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -3418,28 +3418,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.606</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="C3">
-        <v>0.575</v>
+        <v>0.553</v>
       </c>
       <c r="D3">
-        <v>0.5629999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="E3">
+        <v>0.543</v>
+      </c>
+      <c r="F3">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G3">
         <v>0.553</v>
       </c>
-      <c r="F3">
-        <v>0.611</v>
-      </c>
-      <c r="G3">
-        <v>0.579</v>
-      </c>
       <c r="H3">
-        <v>0.5679999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="I3">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -3450,28 +3450,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>0.845</v>
       </c>
       <c r="C4">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D4">
-        <v>0.845</v>
+        <v>0.765</v>
       </c>
       <c r="E4">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>0.773</v>
       </c>
       <c r="G4">
-        <v>0.856</v>
+        <v>0.737</v>
       </c>
       <c r="H4">
-        <v>0.773</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.737</v>
+        <v>0.678</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3482,28 +3482,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.905</v>
+        <v>0.755</v>
       </c>
       <c r="C5">
-        <v>0.8159999999999999</v>
+        <v>0.709</v>
       </c>
       <c r="D5">
-        <v>0.755</v>
+        <v>0.681</v>
       </c>
       <c r="E5">
-        <v>0.709</v>
+        <v>0.671</v>
       </c>
       <c r="F5">
-        <v>0.872</v>
+        <v>0.711</v>
       </c>
       <c r="G5">
-        <v>0.774</v>
+        <v>0.669</v>
       </c>
       <c r="H5">
-        <v>0.711</v>
+        <v>0.641</v>
       </c>
       <c r="I5">
-        <v>0.669</v>
+        <v>0.629</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -3514,28 +3514,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.985</v>
+        <v>0.853</v>
       </c>
       <c r="C6">
-        <v>0.9370000000000001</v>
+        <v>0.795</v>
       </c>
       <c r="D6">
-        <v>0.853</v>
+        <v>0.742</v>
       </c>
       <c r="E6">
-        <v>0.795</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F6">
-        <v>0.966</v>
+        <v>0.825</v>
       </c>
       <c r="G6">
-        <v>0.907</v>
+        <v>0.763</v>
       </c>
       <c r="H6">
-        <v>0.825</v>
+        <v>0.704</v>
       </c>
       <c r="I6">
-        <v>0.763</v>
+        <v>0.647</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -3546,28 +3546,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.976</v>
+        <v>0.918</v>
       </c>
       <c r="C7">
-        <v>0.951</v>
+        <v>0.89</v>
       </c>
       <c r="D7">
-        <v>0.918</v>
+        <v>0.862</v>
       </c>
       <c r="E7">
-        <v>0.89</v>
+        <v>0.839</v>
       </c>
       <c r="F7">
-        <v>0.951</v>
+        <v>0.865</v>
       </c>
       <c r="G7">
-        <v>0.91</v>
+        <v>0.831</v>
       </c>
       <c r="H7">
-        <v>0.865</v>
+        <v>0.793</v>
       </c>
       <c r="I7">
-        <v>0.831</v>
+        <v>0.761</v>
       </c>
       <c r="J7">
         <v>15</v>
@@ -3578,28 +3578,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.977</v>
+        <v>0.885</v>
       </c>
       <c r="C8">
-        <v>0.929</v>
+        <v>0.842</v>
       </c>
       <c r="D8">
-        <v>0.885</v>
+        <v>0.792</v>
       </c>
       <c r="E8">
-        <v>0.842</v>
+        <v>0.753</v>
       </c>
       <c r="F8">
-        <v>0.962</v>
+        <v>0.86</v>
       </c>
       <c r="G8">
-        <v>0.909</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H8">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I8">
-        <v>0.8139999999999999</v>
+        <v>0.712</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -3610,28 +3610,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.993</v>
+        <v>0.926</v>
       </c>
       <c r="C9">
-        <v>0.96</v>
+        <v>0.896</v>
       </c>
       <c r="D9">
-        <v>0.926</v>
+        <v>0.869</v>
       </c>
       <c r="E9">
-        <v>0.896</v>
+        <v>0.848</v>
       </c>
       <c r="F9">
-        <v>0.973</v>
+        <v>0.889</v>
       </c>
       <c r="G9">
-        <v>0.9320000000000001</v>
+        <v>0.853</v>
       </c>
       <c r="H9">
-        <v>0.889</v>
+        <v>0.819</v>
       </c>
       <c r="I9">
-        <v>0.853</v>
+        <v>0.79</v>
       </c>
       <c r="J9">
         <v>21</v>
@@ -3642,28 +3642,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="C10">
-        <v>0.996</v>
+        <v>0.962</v>
       </c>
       <c r="D10">
-        <v>0.982</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E10">
-        <v>0.962</v>
+        <v>0.904</v>
       </c>
       <c r="F10">
-        <v>0.989</v>
+        <v>0.957</v>
       </c>
       <c r="G10">
-        <v>0.978</v>
+        <v>0.929</v>
       </c>
       <c r="H10">
-        <v>0.957</v>
+        <v>0.894</v>
       </c>
       <c r="I10">
-        <v>0.929</v>
+        <v>0.852</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -3674,28 +3674,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="E11">
-        <v>0.994</v>
+        <v>0.972</v>
       </c>
       <c r="F11">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="G11">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="H11">
-        <v>0.984</v>
+        <v>0.952</v>
       </c>
       <c r="I11">
-        <v>0.97</v>
+        <v>0.924</v>
       </c>
       <c r="J11">
         <v>359</v>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.827</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>0.772</v>
+        <v>0.68</v>
       </c>
       <c r="D2">
-        <v>0.71</v>
+        <v>0.637</v>
       </c>
       <c r="E2">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="F2">
-        <v>0.803</v>
+        <v>0.679</v>
       </c>
       <c r="G2">
-        <v>0.743</v>
+        <v>0.645</v>
       </c>
       <c r="H2">
-        <v>0.679</v>
+        <v>0.605</v>
       </c>
       <c r="I2">
-        <v>0.645</v>
+        <v>0.589</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -3783,28 +3783,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.87</v>
+        <v>0.768</v>
       </c>
       <c r="C3">
-        <v>0.821</v>
+        <v>0.736</v>
       </c>
       <c r="D3">
-        <v>0.768</v>
+        <v>0.707</v>
       </c>
       <c r="E3">
-        <v>0.736</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F3">
-        <v>0.845</v>
+        <v>0.731</v>
       </c>
       <c r="G3">
-        <v>0.785</v>
+        <v>0.696</v>
       </c>
       <c r="H3">
-        <v>0.731</v>
+        <v>0.669</v>
       </c>
       <c r="I3">
-        <v>0.696</v>
+        <v>0.65</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -3815,28 +3815,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.905</v>
+        <v>0.862</v>
       </c>
       <c r="C4">
-        <v>0.886</v>
+        <v>0.841</v>
       </c>
       <c r="D4">
-        <v>0.862</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E4">
-        <v>0.841</v>
+        <v>0.79</v>
       </c>
       <c r="F4">
-        <v>0.885</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G4">
-        <v>0.849</v>
+        <v>0.785</v>
       </c>
       <c r="H4">
-        <v>0.8120000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="I4">
-        <v>0.785</v>
+        <v>0.719</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -3847,28 +3847,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.963</v>
+        <v>0.905</v>
       </c>
       <c r="C5">
-        <v>0.9320000000000001</v>
+        <v>0.865</v>
       </c>
       <c r="D5">
-        <v>0.905</v>
+        <v>0.827</v>
       </c>
       <c r="E5">
-        <v>0.865</v>
+        <v>0.799</v>
       </c>
       <c r="F5">
-        <v>0.947</v>
+        <v>0.872</v>
       </c>
       <c r="G5">
-        <v>0.907</v>
+        <v>0.828</v>
       </c>
       <c r="H5">
-        <v>0.872</v>
+        <v>0.782</v>
       </c>
       <c r="I5">
-        <v>0.828</v>
+        <v>0.745</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -3879,28 +3879,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.998</v>
+        <v>0.963</v>
       </c>
       <c r="C6">
-        <v>0.984</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="D6">
-        <v>0.963</v>
+        <v>0.912</v>
       </c>
       <c r="E6">
+        <v>0.884</v>
+      </c>
+      <c r="F6">
         <v>0.9379999999999999</v>
       </c>
-      <c r="F6">
-        <v>0.988</v>
-      </c>
       <c r="G6">
-        <v>0.967</v>
+        <v>0.904</v>
       </c>
       <c r="H6">
-        <v>0.9379999999999999</v>
+        <v>0.868</v>
       </c>
       <c r="I6">
-        <v>0.904</v>
+        <v>0.828</v>
       </c>
       <c r="J6">
         <v>14</v>
@@ -3911,28 +3911,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C7">
-        <v>0.962</v>
+        <v>0.92</v>
       </c>
       <c r="D7">
-        <v>0.9399999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="E7">
-        <v>0.92</v>
+        <v>0.868</v>
       </c>
       <c r="F7">
-        <v>0.972</v>
+        <v>0.926</v>
       </c>
       <c r="G7">
-        <v>0.951</v>
+        <v>0.899</v>
       </c>
       <c r="H7">
-        <v>0.926</v>
+        <v>0.867</v>
       </c>
       <c r="I7">
-        <v>0.899</v>
+        <v>0.83</v>
       </c>
       <c r="J7">
         <v>18</v>
@@ -3943,28 +3943,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.995</v>
+        <v>0.976</v>
       </c>
       <c r="C8">
-        <v>0.987</v>
+        <v>0.96</v>
       </c>
       <c r="D8">
-        <v>0.976</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E8">
-        <v>0.96</v>
+        <v>0.912</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.956</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H8">
-        <v>0.956</v>
+        <v>0.901</v>
       </c>
       <c r="I8">
-        <v>0.9320000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="J8">
         <v>37</v>
@@ -3975,28 +3975,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.998</v>
+        <v>0.978</v>
       </c>
       <c r="C9">
-        <v>0.989</v>
+        <v>0.965</v>
       </c>
       <c r="D9">
-        <v>0.978</v>
+        <v>0.949</v>
       </c>
       <c r="E9">
-        <v>0.965</v>
+        <v>0.928</v>
       </c>
       <c r="F9">
-        <v>0.988</v>
+        <v>0.957</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H9">
-        <v>0.957</v>
+        <v>0.912</v>
       </c>
       <c r="I9">
-        <v>0.9360000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="J9">
         <v>70</v>
@@ -4007,28 +4007,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="D10">
-        <v>0.996</v>
+        <v>0.978</v>
       </c>
       <c r="E10">
-        <v>0.989</v>
+        <v>0.963</v>
       </c>
       <c r="F10">
-        <v>0.991</v>
+        <v>0.975</v>
       </c>
       <c r="G10">
-        <v>0.985</v>
+        <v>0.959</v>
       </c>
       <c r="H10">
-        <v>0.975</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I10">
-        <v>0.959</v>
+        <v>0.912</v>
       </c>
       <c r="J10">
         <v>111</v>
@@ -4042,25 +4042,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E11">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F11">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G11">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="H11">
-        <v>0.989</v>
+        <v>0.963</v>
       </c>
       <c r="I11">
-        <v>0.978</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J11">
         <v>171</v>
@@ -4116,28 +4116,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.922</v>
+        <v>0.819</v>
       </c>
       <c r="C2">
-        <v>0.882</v>
+        <v>0.787</v>
       </c>
       <c r="D2">
-        <v>0.819</v>
+        <v>0.742</v>
       </c>
       <c r="E2">
-        <v>0.787</v>
+        <v>0.716</v>
       </c>
       <c r="F2">
-        <v>0.904</v>
+        <v>0.793</v>
       </c>
       <c r="G2">
-        <v>0.859</v>
+        <v>0.758</v>
       </c>
       <c r="H2">
-        <v>0.793</v>
+        <v>0.714</v>
       </c>
       <c r="I2">
-        <v>0.758</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -4148,28 +4148,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.9419999999999999</v>
+        <v>0.883</v>
       </c>
       <c r="C3">
-        <v>0.913</v>
+        <v>0.851</v>
       </c>
       <c r="D3">
-        <v>0.883</v>
+        <v>0.824</v>
       </c>
       <c r="E3">
-        <v>0.851</v>
+        <v>0.799</v>
       </c>
       <c r="F3">
-        <v>0.918</v>
+        <v>0.833</v>
       </c>
       <c r="G3">
-        <v>0.873</v>
+        <v>0.795</v>
       </c>
       <c r="H3">
-        <v>0.833</v>
+        <v>0.76</v>
       </c>
       <c r="I3">
-        <v>0.795</v>
+        <v>0.731</v>
       </c>
       <c r="J3">
         <v>19</v>
@@ -4180,28 +4180,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9320000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>0.919</v>
+        <v>0.877</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.848</v>
       </c>
       <c r="E4">
-        <v>0.877</v>
+        <v>0.824</v>
       </c>
       <c r="F4">
-        <v>0.918</v>
+        <v>0.864</v>
       </c>
       <c r="G4">
-        <v>0.893</v>
+        <v>0.836</v>
       </c>
       <c r="H4">
-        <v>0.864</v>
+        <v>0.798</v>
       </c>
       <c r="I4">
-        <v>0.836</v>
+        <v>0.764</v>
       </c>
       <c r="J4">
         <v>19</v>
@@ -4212,28 +4212,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.981</v>
+        <v>0.947</v>
       </c>
       <c r="C5">
-        <v>0.965</v>
+        <v>0.926</v>
       </c>
       <c r="D5">
-        <v>0.947</v>
+        <v>0.902</v>
       </c>
       <c r="E5">
-        <v>0.926</v>
+        <v>0.873</v>
       </c>
       <c r="F5">
-        <v>0.972</v>
+        <v>0.929</v>
       </c>
       <c r="G5">
-        <v>0.952</v>
+        <v>0.901</v>
       </c>
       <c r="H5">
-        <v>0.929</v>
+        <v>0.869</v>
       </c>
       <c r="I5">
-        <v>0.901</v>
+        <v>0.829</v>
       </c>
       <c r="J5">
         <v>24</v>
@@ -4244,28 +4244,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="D6">
-        <v>0.995</v>
+        <v>0.964</v>
       </c>
       <c r="E6">
-        <v>0.983</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F6">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="G6">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="H6">
-        <v>0.979</v>
+        <v>0.931</v>
       </c>
       <c r="I6">
-        <v>0.958</v>
+        <v>0.896</v>
       </c>
       <c r="J6">
         <v>44</v>
@@ -4276,28 +4276,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="C7">
-        <v>0.985</v>
+        <v>0.966</v>
       </c>
       <c r="D7">
-        <v>0.976</v>
+        <v>0.952</v>
       </c>
       <c r="E7">
-        <v>0.966</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F7">
-        <v>0.983</v>
+        <v>0.957</v>
       </c>
       <c r="G7">
-        <v>0.971</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="H7">
-        <v>0.957</v>
+        <v>0.917</v>
       </c>
       <c r="I7">
-        <v>0.9389999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="J7">
         <v>46</v>
@@ -4308,28 +4308,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.996</v>
+        <v>0.974</v>
       </c>
       <c r="C8">
-        <v>0.985</v>
+        <v>0.963</v>
       </c>
       <c r="D8">
-        <v>0.974</v>
+        <v>0.946</v>
       </c>
       <c r="E8">
-        <v>0.963</v>
+        <v>0.929</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.955</v>
       </c>
       <c r="G8">
-        <v>0.971</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H8">
-        <v>0.955</v>
+        <v>0.912</v>
       </c>
       <c r="I8">
-        <v>0.9350000000000001</v>
+        <v>0.882</v>
       </c>
       <c r="J8">
         <v>67</v>
@@ -4340,28 +4340,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="D9">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="E9">
-        <v>0.988</v>
+        <v>0.965</v>
       </c>
       <c r="F9">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="G9">
-        <v>0.985</v>
+        <v>0.96</v>
       </c>
       <c r="H9">
-        <v>0.975</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I9">
-        <v>0.96</v>
+        <v>0.916</v>
       </c>
       <c r="J9">
         <v>113</v>
@@ -4375,25 +4375,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H10">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="I10">
-        <v>0.978</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J10">
         <v>98</v>
@@ -4407,25 +4407,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F11">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G11">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H11">
-        <v>0.989</v>
+        <v>0.962</v>
       </c>
       <c r="I11">
-        <v>0.978</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J11">
         <v>22</v>
